--- a/mobi_client/mobi_client/mobi_config/excel/007_跳转表.xlsx
+++ b/mobi_client/mobi_client/mobi_config/excel/007_跳转表.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\mobi_configGit\mobi_client\mobi_client\mobi_config\no_limit_state_excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\mobi_configGit\mobi_config\mobi_client\mobi_client\mobi_config\no_limit_state_excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A46754AC-0501-457B-8F23-FAD3DBC75AA0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B2A2BD0-6546-456E-ABBD-AF051D44B8E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-25290" yWindow="0" windowWidth="13500" windowHeight="20835" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-27630" yWindow="1170" windowWidth="13500" windowHeight="16545" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Jump" sheetId="1" r:id="rId1"/>

--- a/mobi_client/mobi_client/mobi_config/excel/007_跳转表.xlsx
+++ b/mobi_client/mobi_client/mobi_config/excel/007_跳转表.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\mobi_configGit\mobi_config\mobi_client\mobi_client\mobi_config\no_limit_state_excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B2A2BD0-6546-456E-ABBD-AF051D44B8E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D06E0CBE-8006-4E98-8E62-F8C27A79A384}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-27630" yWindow="1170" windowWidth="13500" windowHeight="16545" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Jump" sheetId="1" r:id="rId1"/>
@@ -329,18 +329,18 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="9"/>
@@ -410,7 +410,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -748,7 +748,7 @@
   <dimension ref="A1:D43"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>

--- a/mobi_client/mobi_client/mobi_config/excel/007_跳转表.xlsx
+++ b/mobi_client/mobi_client/mobi_config/excel/007_跳转表.xlsx
@@ -56,7 +56,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="29">
   <si>
     <t>跳转id</t>
   </si>
@@ -112,13 +112,13 @@
     <t>当前版本未放出，敬请期待</t>
   </si>
   <si>
-    <t>当前版本暂未开放充值功能~</t>
+    <t>当前版本暂未开放充值功能</t>
   </si>
   <si>
-    <t>通过探索安江市完成支线获得~</t>
+    <t>通过探索安江市完成支线获得</t>
   </si>
   <si>
-    <t>通过完成杜衡发放的任务获得~</t>
+    <t>通过完成杜衡发放的任务获得</t>
   </si>
   <si>
     <t>获得同名异质物时自动分解获得</t>
@@ -133,13 +133,16 @@
     <t>随时间自然恢复，每5分钟恢复1点</t>
   </si>
   <si>
-    <t>通过共生异质物的分解获得~</t>
+    <t>通过共生异质物的分解获得</t>
   </si>
   <si>
-    <t>通过完成任务或者消耗体力获得~</t>
+    <t>通过完成任务或者消耗体力获得</t>
   </si>
   <si>
-    <t>通过提升小队成员的羁绊等级获得~</t>
+    <t>通过提升小队成员的羁绊等级获得</t>
+  </si>
+  <si>
+    <t>通过完成聂飞发放的巡逻任务获得</t>
   </si>
 </sst>
 </file>
@@ -821,9 +824,12 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -7899,80 +7905,80 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:G81"/>
+  <dimension ref="A1:G82"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J15" sqref="J15"/>
+    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="D63" sqref="D63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
   <cols>
     <col min="1" max="1" width="7.75" customWidth="1"/>
-    <col min="2" max="2" width="9" customWidth="1"/>
+    <col min="2" max="2" width="9" style="1" customWidth="1"/>
     <col min="3" max="3" width="32.875" customWidth="1"/>
     <col min="4" max="4" width="50.875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:4">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" s="4" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:4">
-      <c r="A3" s="4" t="s">
+      <c r="A3" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C3" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="D3" s="5" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:4">
-      <c r="A4" s="5" t="s">
+      <c r="A4" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="6" t="s">
+      <c r="B4" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="C4" s="6"/>
-      <c r="D4" s="5"/>
+      <c r="C4" s="7"/>
+      <c r="D4" s="6"/>
     </row>
     <row r="5" spans="1:7">
       <c r="A5">
         <v>10141</v>
       </c>
-      <c r="B5" s="7">
+      <c r="B5" s="8">
         <v>3</v>
       </c>
-      <c r="C5" s="7">
+      <c r="C5" s="8">
         <f t="shared" ref="C5:C22" si="0">INT(A5/100)*1000+MOD(A5,100)</f>
         <v>101041</v>
       </c>
@@ -7993,10 +7999,10 @@
       <c r="A6">
         <v>10142</v>
       </c>
-      <c r="B6" s="7">
+      <c r="B6" s="8">
         <v>3</v>
       </c>
-      <c r="C6" s="7">
+      <c r="C6" s="8">
         <f t="shared" si="0"/>
         <v>101042</v>
       </c>
@@ -8017,10 +8023,10 @@
       <c r="A7">
         <v>10143</v>
       </c>
-      <c r="B7" s="7">
+      <c r="B7" s="8">
         <v>3</v>
       </c>
-      <c r="C7" s="7">
+      <c r="C7" s="8">
         <f t="shared" si="0"/>
         <v>101043</v>
       </c>
@@ -8041,10 +8047,10 @@
       <c r="A8">
         <v>10144</v>
       </c>
-      <c r="B8" s="7">
+      <c r="B8" s="8">
         <v>3</v>
       </c>
-      <c r="C8" s="7">
+      <c r="C8" s="8">
         <f t="shared" si="0"/>
         <v>101044</v>
       </c>
@@ -8065,10 +8071,10 @@
       <c r="A9">
         <v>10145</v>
       </c>
-      <c r="B9" s="7">
+      <c r="B9" s="8">
         <v>3</v>
       </c>
-      <c r="C9" s="7">
+      <c r="C9" s="8">
         <f t="shared" si="0"/>
         <v>101045</v>
       </c>
@@ -8089,10 +8095,10 @@
       <c r="A10">
         <v>10146</v>
       </c>
-      <c r="B10" s="7">
+      <c r="B10" s="8">
         <v>3</v>
       </c>
-      <c r="C10" s="7">
+      <c r="C10" s="8">
         <f t="shared" si="0"/>
         <v>101046</v>
       </c>
@@ -8113,10 +8119,10 @@
       <c r="A11">
         <v>10241</v>
       </c>
-      <c r="B11" s="7">
+      <c r="B11" s="8">
         <v>3</v>
       </c>
-      <c r="C11" s="7">
+      <c r="C11" s="8">
         <f t="shared" si="0"/>
         <v>102041</v>
       </c>
@@ -8137,10 +8143,10 @@
       <c r="A12">
         <v>10242</v>
       </c>
-      <c r="B12" s="7">
+      <c r="B12" s="8">
         <v>3</v>
       </c>
-      <c r="C12" s="7">
+      <c r="C12" s="8">
         <f t="shared" si="0"/>
         <v>102042</v>
       </c>
@@ -8161,10 +8167,10 @@
       <c r="A13">
         <v>10243</v>
       </c>
-      <c r="B13" s="7">
+      <c r="B13" s="8">
         <v>3</v>
       </c>
-      <c r="C13" s="7">
+      <c r="C13" s="8">
         <f t="shared" si="0"/>
         <v>102043</v>
       </c>
@@ -8185,10 +8191,10 @@
       <c r="A14">
         <v>10244</v>
       </c>
-      <c r="B14" s="7">
+      <c r="B14" s="8">
         <v>3</v>
       </c>
-      <c r="C14" s="7">
+      <c r="C14" s="8">
         <f t="shared" si="0"/>
         <v>102044</v>
       </c>
@@ -8209,10 +8215,10 @@
       <c r="A15">
         <v>10245</v>
       </c>
-      <c r="B15" s="7">
+      <c r="B15" s="8">
         <v>3</v>
       </c>
-      <c r="C15" s="7">
+      <c r="C15" s="8">
         <f t="shared" si="0"/>
         <v>102045</v>
       </c>
@@ -8233,10 +8239,10 @@
       <c r="A16">
         <v>10341</v>
       </c>
-      <c r="B16" s="7">
+      <c r="B16" s="8">
         <v>3</v>
       </c>
-      <c r="C16" s="7">
+      <c r="C16" s="8">
         <f t="shared" si="0"/>
         <v>103041</v>
       </c>
@@ -8257,10 +8263,10 @@
       <c r="A17">
         <v>10342</v>
       </c>
-      <c r="B17" s="7">
+      <c r="B17" s="8">
         <v>3</v>
       </c>
-      <c r="C17" s="7">
+      <c r="C17" s="8">
         <f t="shared" si="0"/>
         <v>103042</v>
       </c>
@@ -8281,10 +8287,10 @@
       <c r="A18">
         <v>10343</v>
       </c>
-      <c r="B18" s="7">
+      <c r="B18" s="8">
         <v>3</v>
       </c>
-      <c r="C18" s="7">
+      <c r="C18" s="8">
         <f t="shared" si="0"/>
         <v>103043</v>
       </c>
@@ -8305,10 +8311,10 @@
       <c r="A19">
         <v>10344</v>
       </c>
-      <c r="B19" s="7">
+      <c r="B19" s="8">
         <v>3</v>
       </c>
-      <c r="C19" s="7">
+      <c r="C19" s="8">
         <f t="shared" si="0"/>
         <v>103044</v>
       </c>
@@ -8329,10 +8335,10 @@
       <c r="A20">
         <v>10345</v>
       </c>
-      <c r="B20" s="7">
+      <c r="B20" s="8">
         <v>3</v>
       </c>
-      <c r="C20" s="7">
+      <c r="C20" s="8">
         <f t="shared" si="0"/>
         <v>103045</v>
       </c>
@@ -8353,10 +8359,10 @@
       <c r="A21">
         <v>10346</v>
       </c>
-      <c r="B21" s="7">
+      <c r="B21" s="8">
         <v>3</v>
       </c>
-      <c r="C21" s="7">
+      <c r="C21" s="8">
         <f t="shared" si="0"/>
         <v>103046</v>
       </c>
@@ -8377,10 +8383,10 @@
       <c r="A22">
         <v>10347</v>
       </c>
-      <c r="B22" s="7">
+      <c r="B22" s="8">
         <v>3</v>
       </c>
-      <c r="C22" s="7">
+      <c r="C22" s="8">
         <f t="shared" si="0"/>
         <v>103047</v>
       </c>
@@ -8401,10 +8407,10 @@
       <c r="A23">
         <v>20141</v>
       </c>
-      <c r="B23" s="7">
+      <c r="B23" s="8">
         <v>3</v>
       </c>
-      <c r="C23" s="7">
+      <c r="C23" s="8">
         <f t="shared" ref="C23:C49" si="2">INT(A23/100)*1000+MOD(A23,100)</f>
         <v>201041</v>
       </c>
@@ -8425,10 +8431,10 @@
       <c r="A24">
         <v>20142</v>
       </c>
-      <c r="B24" s="7">
+      <c r="B24" s="8">
         <v>3</v>
       </c>
-      <c r="C24" s="7">
+      <c r="C24" s="8">
         <f t="shared" si="2"/>
         <v>201042</v>
       </c>
@@ -8449,10 +8455,10 @@
       <c r="A25">
         <v>20143</v>
       </c>
-      <c r="B25" s="7">
+      <c r="B25" s="8">
         <v>3</v>
       </c>
-      <c r="C25" s="7">
+      <c r="C25" s="8">
         <f t="shared" si="2"/>
         <v>201043</v>
       </c>
@@ -8473,10 +8479,10 @@
       <c r="A26">
         <v>20144</v>
       </c>
-      <c r="B26" s="7">
+      <c r="B26" s="8">
         <v>3</v>
       </c>
-      <c r="C26" s="7">
+      <c r="C26" s="8">
         <f t="shared" si="2"/>
         <v>201044</v>
       </c>
@@ -8497,10 +8503,10 @@
       <c r="A27">
         <v>20145</v>
       </c>
-      <c r="B27" s="7">
+      <c r="B27" s="8">
         <v>3</v>
       </c>
-      <c r="C27" s="7">
+      <c r="C27" s="8">
         <f t="shared" si="2"/>
         <v>201045</v>
       </c>
@@ -8521,10 +8527,10 @@
       <c r="A28">
         <v>20146</v>
       </c>
-      <c r="B28" s="7">
+      <c r="B28" s="8">
         <v>3</v>
       </c>
-      <c r="C28" s="7">
+      <c r="C28" s="8">
         <f t="shared" si="2"/>
         <v>201046</v>
       </c>
@@ -8545,10 +8551,10 @@
       <c r="A29">
         <v>20147</v>
       </c>
-      <c r="B29" s="7">
+      <c r="B29" s="8">
         <v>3</v>
       </c>
-      <c r="C29" s="7">
+      <c r="C29" s="8">
         <f t="shared" si="2"/>
         <v>201047</v>
       </c>
@@ -8569,10 +8575,10 @@
       <c r="A30">
         <v>20148</v>
       </c>
-      <c r="B30" s="7">
+      <c r="B30" s="8">
         <v>3</v>
       </c>
-      <c r="C30" s="7">
+      <c r="C30" s="8">
         <f t="shared" si="2"/>
         <v>201048</v>
       </c>
@@ -8593,10 +8599,10 @@
       <c r="A31">
         <v>20149</v>
       </c>
-      <c r="B31" s="7">
+      <c r="B31" s="8">
         <v>3</v>
       </c>
-      <c r="C31" s="7">
+      <c r="C31" s="8">
         <f t="shared" si="2"/>
         <v>201049</v>
       </c>
@@ -8617,10 +8623,10 @@
       <c r="A32">
         <v>20150</v>
       </c>
-      <c r="B32" s="7">
+      <c r="B32" s="8">
         <v>3</v>
       </c>
-      <c r="C32" s="7">
+      <c r="C32" s="8">
         <f t="shared" si="2"/>
         <v>201050</v>
       </c>
@@ -8641,10 +8647,10 @@
       <c r="A33">
         <v>20151</v>
       </c>
-      <c r="B33" s="7">
+      <c r="B33" s="8">
         <v>3</v>
       </c>
-      <c r="C33" s="7">
+      <c r="C33" s="8">
         <f t="shared" si="2"/>
         <v>201051</v>
       </c>
@@ -8665,10 +8671,10 @@
       <c r="A34">
         <v>20152</v>
       </c>
-      <c r="B34" s="7">
+      <c r="B34" s="8">
         <v>3</v>
       </c>
-      <c r="C34" s="7">
+      <c r="C34" s="8">
         <f t="shared" si="2"/>
         <v>201052</v>
       </c>
@@ -8689,10 +8695,10 @@
       <c r="A35">
         <v>20153</v>
       </c>
-      <c r="B35" s="7">
+      <c r="B35" s="8">
         <v>3</v>
       </c>
-      <c r="C35" s="7">
+      <c r="C35" s="8">
         <f t="shared" si="2"/>
         <v>201053</v>
       </c>
@@ -8713,10 +8719,10 @@
       <c r="A36">
         <v>20154</v>
       </c>
-      <c r="B36" s="7">
+      <c r="B36" s="8">
         <v>3</v>
       </c>
-      <c r="C36" s="7">
+      <c r="C36" s="8">
         <f t="shared" si="2"/>
         <v>201054</v>
       </c>
@@ -8737,10 +8743,10 @@
       <c r="A37">
         <v>20241</v>
       </c>
-      <c r="B37" s="7">
+      <c r="B37" s="8">
         <v>3</v>
       </c>
-      <c r="C37" s="7">
+      <c r="C37" s="8">
         <f t="shared" si="2"/>
         <v>202041</v>
       </c>
@@ -8761,10 +8767,10 @@
       <c r="A38">
         <v>20242</v>
       </c>
-      <c r="B38" s="7">
+      <c r="B38" s="8">
         <v>3</v>
       </c>
-      <c r="C38" s="7">
+      <c r="C38" s="8">
         <f t="shared" si="2"/>
         <v>202042</v>
       </c>
@@ -8785,10 +8791,10 @@
       <c r="A39">
         <v>20243</v>
       </c>
-      <c r="B39" s="7">
+      <c r="B39" s="8">
         <v>3</v>
       </c>
-      <c r="C39" s="7">
+      <c r="C39" s="8">
         <f t="shared" si="2"/>
         <v>202043</v>
       </c>
@@ -8809,10 +8815,10 @@
       <c r="A40">
         <v>20244</v>
       </c>
-      <c r="B40" s="7">
+      <c r="B40" s="8">
         <v>3</v>
       </c>
-      <c r="C40" s="7">
+      <c r="C40" s="8">
         <f t="shared" si="2"/>
         <v>202044</v>
       </c>
@@ -8833,10 +8839,10 @@
       <c r="A41">
         <v>20245</v>
       </c>
-      <c r="B41" s="7">
+      <c r="B41" s="8">
         <v>3</v>
       </c>
-      <c r="C41" s="7">
+      <c r="C41" s="8">
         <f t="shared" si="2"/>
         <v>202045</v>
       </c>
@@ -8857,10 +8863,10 @@
       <c r="A42">
         <v>20246</v>
       </c>
-      <c r="B42" s="7">
+      <c r="B42" s="8">
         <v>3</v>
       </c>
-      <c r="C42" s="7">
+      <c r="C42" s="8">
         <f t="shared" si="2"/>
         <v>202046</v>
       </c>
@@ -8881,10 +8887,10 @@
       <c r="A43">
         <v>20247</v>
       </c>
-      <c r="B43" s="7">
+      <c r="B43" s="8">
         <v>3</v>
       </c>
-      <c r="C43" s="7">
+      <c r="C43" s="8">
         <f t="shared" si="2"/>
         <v>202047</v>
       </c>
@@ -8905,10 +8911,10 @@
       <c r="A44">
         <v>20248</v>
       </c>
-      <c r="B44" s="7">
+      <c r="B44" s="8">
         <v>3</v>
       </c>
-      <c r="C44" s="7">
+      <c r="C44" s="8">
         <f t="shared" si="2"/>
         <v>202048</v>
       </c>
@@ -8929,10 +8935,10 @@
       <c r="A45">
         <v>20249</v>
       </c>
-      <c r="B45" s="7">
+      <c r="B45" s="8">
         <v>3</v>
       </c>
-      <c r="C45" s="7">
+      <c r="C45" s="8">
         <f t="shared" si="2"/>
         <v>202049</v>
       </c>
@@ -8953,10 +8959,10 @@
       <c r="A46">
         <v>20250</v>
       </c>
-      <c r="B46" s="7">
+      <c r="B46" s="8">
         <v>3</v>
       </c>
-      <c r="C46" s="7">
+      <c r="C46" s="8">
         <f t="shared" si="2"/>
         <v>202050</v>
       </c>
@@ -8977,10 +8983,10 @@
       <c r="A47">
         <v>20251</v>
       </c>
-      <c r="B47" s="7">
+      <c r="B47" s="8">
         <v>3</v>
       </c>
-      <c r="C47" s="7">
+      <c r="C47" s="8">
         <f t="shared" si="2"/>
         <v>202051</v>
       </c>
@@ -9001,10 +9007,10 @@
       <c r="A48">
         <v>20252</v>
       </c>
-      <c r="B48" s="7">
+      <c r="B48" s="8">
         <v>3</v>
       </c>
-      <c r="C48" s="7">
+      <c r="C48" s="8">
         <f t="shared" si="2"/>
         <v>202052</v>
       </c>
@@ -9025,10 +9031,10 @@
       <c r="A49">
         <v>20253</v>
       </c>
-      <c r="B49" s="7">
+      <c r="B49" s="8">
         <v>3</v>
       </c>
-      <c r="C49" s="7">
+      <c r="C49" s="8">
         <f t="shared" si="2"/>
         <v>202053</v>
       </c>
@@ -9049,10 +9055,10 @@
       <c r="A50">
         <v>30141</v>
       </c>
-      <c r="B50" s="7">
+      <c r="B50" s="8">
         <v>3</v>
       </c>
-      <c r="C50" s="7">
+      <c r="C50" s="8">
         <f t="shared" ref="C50:C67" si="4">INT(A50/100)*1000+MOD(A50,100)</f>
         <v>301041</v>
       </c>
@@ -9073,10 +9079,10 @@
       <c r="A51">
         <v>30142</v>
       </c>
-      <c r="B51" s="7">
+      <c r="B51" s="8">
         <v>3</v>
       </c>
-      <c r="C51" s="7">
+      <c r="C51" s="8">
         <f t="shared" si="4"/>
         <v>301042</v>
       </c>
@@ -9097,10 +9103,10 @@
       <c r="A52">
         <v>30143</v>
       </c>
-      <c r="B52" s="7">
+      <c r="B52" s="8">
         <v>3</v>
       </c>
-      <c r="C52" s="7">
+      <c r="C52" s="8">
         <f t="shared" si="4"/>
         <v>301043</v>
       </c>
@@ -9121,10 +9127,10 @@
       <c r="A53">
         <v>30145</v>
       </c>
-      <c r="B53" s="7">
+      <c r="B53" s="8">
         <v>3</v>
       </c>
-      <c r="C53" s="7">
+      <c r="C53" s="8">
         <f t="shared" si="4"/>
         <v>301045</v>
       </c>
@@ -9145,10 +9151,10 @@
       <c r="A54">
         <v>30146</v>
       </c>
-      <c r="B54" s="7">
+      <c r="B54" s="8">
         <v>3</v>
       </c>
-      <c r="C54" s="7">
+      <c r="C54" s="8">
         <f t="shared" si="4"/>
         <v>301046</v>
       </c>
@@ -9169,10 +9175,10 @@
       <c r="A55">
         <v>30148</v>
       </c>
-      <c r="B55" s="7">
+      <c r="B55" s="8">
         <v>3</v>
       </c>
-      <c r="C55" s="7">
+      <c r="C55" s="8">
         <f t="shared" si="4"/>
         <v>301048</v>
       </c>
@@ -9193,10 +9199,10 @@
       <c r="A56">
         <v>30149</v>
       </c>
-      <c r="B56" s="7">
+      <c r="B56" s="8">
         <v>3</v>
       </c>
-      <c r="C56" s="7">
+      <c r="C56" s="8">
         <f t="shared" si="4"/>
         <v>301049</v>
       </c>
@@ -9217,10 +9223,10 @@
       <c r="A57">
         <v>30150</v>
       </c>
-      <c r="B57" s="7">
+      <c r="B57" s="8">
         <v>3</v>
       </c>
-      <c r="C57" s="7">
+      <c r="C57" s="8">
         <f t="shared" si="4"/>
         <v>301050</v>
       </c>
@@ -9241,10 +9247,10 @@
       <c r="A58">
         <v>30151</v>
       </c>
-      <c r="B58" s="7">
+      <c r="B58" s="8">
         <v>3</v>
       </c>
-      <c r="C58" s="7">
+      <c r="C58" s="8">
         <f t="shared" si="4"/>
         <v>301051</v>
       </c>
@@ -9265,10 +9271,10 @@
       <c r="A59">
         <v>30152</v>
       </c>
-      <c r="B59" s="7">
+      <c r="B59" s="8">
         <v>3</v>
       </c>
-      <c r="C59" s="7">
+      <c r="C59" s="8">
         <f t="shared" si="4"/>
         <v>301052</v>
       </c>
@@ -9289,10 +9295,10 @@
       <c r="A60">
         <v>30153</v>
       </c>
-      <c r="B60" s="7">
+      <c r="B60" s="8">
         <v>3</v>
       </c>
-      <c r="C60" s="7">
+      <c r="C60" s="8">
         <f t="shared" si="4"/>
         <v>301053</v>
       </c>
@@ -9313,10 +9319,10 @@
       <c r="A61">
         <v>30243</v>
       </c>
-      <c r="B61" s="7">
+      <c r="B61" s="8">
         <v>3</v>
       </c>
-      <c r="C61" s="7">
+      <c r="C61" s="8">
         <f t="shared" si="4"/>
         <v>302043</v>
       </c>
@@ -9337,10 +9343,10 @@
       <c r="A62">
         <v>30244</v>
       </c>
-      <c r="B62" s="7">
+      <c r="B62" s="8">
         <v>3</v>
       </c>
-      <c r="C62" s="7">
+      <c r="C62" s="8">
         <f t="shared" si="4"/>
         <v>302044</v>
       </c>
@@ -9361,10 +9367,10 @@
       <c r="A63">
         <v>30245</v>
       </c>
-      <c r="B63" s="7">
+      <c r="B63" s="8">
         <v>3</v>
       </c>
-      <c r="C63" s="7">
+      <c r="C63" s="8">
         <f t="shared" si="4"/>
         <v>302045</v>
       </c>
@@ -9385,10 +9391,10 @@
       <c r="A64">
         <v>30246</v>
       </c>
-      <c r="B64" s="7">
+      <c r="B64" s="8">
         <v>3</v>
       </c>
-      <c r="C64" s="7">
+      <c r="C64" s="8">
         <f t="shared" si="4"/>
         <v>302046</v>
       </c>
@@ -9409,10 +9415,10 @@
       <c r="A65">
         <v>30247</v>
       </c>
-      <c r="B65" s="7">
+      <c r="B65" s="8">
         <v>3</v>
       </c>
-      <c r="C65" s="7">
+      <c r="C65" s="8">
         <f t="shared" si="4"/>
         <v>302047</v>
       </c>
@@ -9433,10 +9439,10 @@
       <c r="A66">
         <v>30248</v>
       </c>
-      <c r="B66" s="7">
+      <c r="B66" s="8">
         <v>3</v>
       </c>
-      <c r="C66" s="7">
+      <c r="C66" s="8">
         <f t="shared" si="4"/>
         <v>302048</v>
       </c>
@@ -9457,10 +9463,10 @@
       <c r="A67">
         <v>30270</v>
       </c>
-      <c r="B67" s="7">
+      <c r="B67" s="8">
         <v>3</v>
       </c>
-      <c r="C67" s="7">
+      <c r="C67" s="8">
         <f t="shared" si="4"/>
         <v>302070</v>
       </c>
@@ -9481,10 +9487,10 @@
       <c r="A68">
         <v>30291</v>
       </c>
-      <c r="B68" s="7">
+      <c r="B68" s="8">
         <v>3</v>
       </c>
-      <c r="C68" s="7">
+      <c r="C68" s="8">
         <v>302041</v>
       </c>
       <c r="D68" t="str">
@@ -9502,10 +9508,10 @@
       <c r="A69">
         <v>30292</v>
       </c>
-      <c r="B69" s="7">
+      <c r="B69" s="8">
         <v>3</v>
       </c>
-      <c r="C69" s="7">
+      <c r="C69" s="8">
         <v>302042</v>
       </c>
       <c r="D69" t="str">
@@ -9523,8 +9529,8 @@
       <c r="A70">
         <v>999001</v>
       </c>
-      <c r="B70" s="7"/>
-      <c r="C70" s="7"/>
+      <c r="B70" s="8"/>
+      <c r="C70" s="8"/>
       <c r="D70" t="s">
         <v>16</v>
       </c>
@@ -9533,8 +9539,8 @@
       <c r="A71">
         <v>999002</v>
       </c>
-      <c r="B71" s="7"/>
-      <c r="C71" s="7"/>
+      <c r="B71" s="8"/>
+      <c r="C71" s="8"/>
       <c r="D71" t="s">
         <v>17</v>
       </c>
@@ -9559,6 +9565,7 @@
       <c r="A74">
         <v>999005</v>
       </c>
+      <c r="B74" s="1"/>
       <c r="D74" t="s">
         <v>20</v>
       </c>
@@ -9567,8 +9574,8 @@
       <c r="A75">
         <v>999011</v>
       </c>
-      <c r="B75" s="7"/>
-      <c r="C75" s="7"/>
+      <c r="B75" s="8"/>
+      <c r="C75" s="8"/>
       <c r="D75" t="s">
         <v>21</v>
       </c>
@@ -9577,10 +9584,10 @@
       <c r="A76">
         <v>999012</v>
       </c>
-      <c r="B76" s="7">
+      <c r="B76" s="8">
         <v>2</v>
       </c>
-      <c r="C76" s="7">
+      <c r="C76" s="8">
         <v>14</v>
       </c>
       <c r="D76" t="s">
@@ -9591,10 +9598,10 @@
       <c r="A77">
         <v>999013</v>
       </c>
-      <c r="B77" s="7">
+      <c r="B77" s="8">
         <v>2</v>
       </c>
-      <c r="C77" s="7">
+      <c r="C77" s="8">
         <v>13</v>
       </c>
       <c r="D77" t="s">
@@ -9631,6 +9638,20 @@
       </c>
       <c r="D81" t="s">
         <v>27</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4">
+      <c r="A82">
+        <v>999018</v>
+      </c>
+      <c r="B82" s="1">
+        <v>1</v>
+      </c>
+      <c r="C82" s="1">
+        <v>5010</v>
+      </c>
+      <c r="D82" t="s">
+        <v>28</v>
       </c>
     </row>
   </sheetData>
